--- a/Lab02_BBT_TCs_Form.xlsx
+++ b/Lab02_BBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A78DD85C-E7A3-4167-997A-3AD675569EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D48C58-2AD4-4289-9675-EB7FE114C2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="38700" windowHeight="15435" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cerinta" sheetId="1" r:id="rId1"/>
@@ -101,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="115">
   <si>
     <t>Condition</t>
   </si>
@@ -327,48 +327,18 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>CNP la lungimea maxima</t>
-  </si>
-  <si>
-    <t>CNP-ul are 13 caractere</t>
-  </si>
-  <si>
     <t>("John", "Doe", "1234567890123", DidacticFunction.ASSISTANT, 3000.0)</t>
   </si>
   <si>
     <t>("John", "Doe", null, DidacticFunction.ASSISTANT, 3000.0)</t>
   </si>
   <si>
-    <t>("John", "Doe", "1234567890123", DidacticFunction.ASSISTANT, -100.0)</t>
-  </si>
-  <si>
-    <t>firstName are mai putin de 2 caractere</t>
-  </si>
-  <si>
-    <t>Salariul este negativ</t>
-  </si>
-  <si>
     <t>("Jo", "Doe", "1234567890123", DidacticFunction.ASSISTANT, 3000.0)</t>
   </si>
   <si>
-    <t>function este dintre cele enumerate</t>
-  </si>
-  <si>
-    <t>lastName are mai putin de 2 caractere</t>
-  </si>
-  <si>
     <t>("John", "Doe", "123456789012345", DidacticFunction.ASSISTANT, 3000.0)</t>
   </si>
   <si>
-    <t>("J", "Doe", "1234567890123", DidacticFunction.ASSISTANT, 3000.0)</t>
-  </si>
-  <si>
-    <t>("John", "D", "1234567890123", DidacticFunction.ASSISTANT, 3000.0)</t>
-  </si>
-  <si>
-    <t>CNP depaseste maximul</t>
-  </si>
-  <si>
     <t>firstName are 3 caractere</t>
   </si>
   <si>
@@ -390,9 +360,6 @@
     <t>salariul este 0</t>
   </si>
   <si>
-    <t>function nu este dintre cele enumerate</t>
-  </si>
-  <si>
     <t>CNP este null</t>
   </si>
   <si>
@@ -442,6 +409,102 @@
   </si>
   <si>
     <t>DATA VALIDATION</t>
+  </si>
+  <si>
+    <t>CNP-ul valid</t>
+  </si>
+  <si>
+    <t>CNP are 13 caractere</t>
+  </si>
+  <si>
+    <t>CNP are peste 13 caractere</t>
+  </si>
+  <si>
+    <t>CNP are sub 13 caractere</t>
+  </si>
+  <si>
+    <t>Function valid</t>
+  </si>
+  <si>
+    <t>Function este ASSISTANT</t>
+  </si>
+  <si>
+    <t>Function este PROFESSOR</t>
+  </si>
+  <si>
+    <t>Function este LECTURER</t>
+  </si>
+  <si>
+    <t>Function este ASSOCIATE</t>
+  </si>
+  <si>
+    <t>firstName valid</t>
+  </si>
+  <si>
+    <t>firstName are &gt;2 caractere</t>
+  </si>
+  <si>
+    <t>firstName are &lt;3 caractere</t>
+  </si>
+  <si>
+    <t>lastName valid</t>
+  </si>
+  <si>
+    <t>lastName are &gt;2 caractere</t>
+  </si>
+  <si>
+    <t>lastName are &lt;3 caractere</t>
+  </si>
+  <si>
+    <t>Salariul este mai mare &gt;0.0</t>
+  </si>
+  <si>
+    <t>Salariul este &lt;=0.0</t>
+  </si>
+  <si>
+    <t>Salary valid</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "12345678901", DidacticFunction.ASSISTANT, 3000.0)</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "1234567890123", DidacticFunction.LECTURER, 3000.0)</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "1234567890123", DidacticFunction.PROFESSOR, 3000.0)</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "1234567890123", DidacticFunction.ASSOCIATE, 3000.0)</t>
+  </si>
+  <si>
+    <t>("J0", "Doe", "1234567890123", DidacticFunction.ASSISTANT, 3000.0)</t>
+  </si>
+  <si>
+    <t>function e ASSISTANT</t>
+  </si>
+  <si>
+    <t>function e LECTURER</t>
+  </si>
+  <si>
+    <t>function e PROFESSOR</t>
+  </si>
+  <si>
+    <t>function e ASSOCIATE</t>
+  </si>
+  <si>
+    <t>function e PAREROLOG</t>
+  </si>
+  <si>
+    <t>CNP are 12 sau mai putin caractere</t>
+  </si>
+  <si>
+    <t>CNP are 14 sau mai multe caractere</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "123456789012", DidacticFunction.ASSISTANT, 3000.0)</t>
+  </si>
+  <si>
+    <t>("John", "Doe", "12345678901234", DidacticFunction.ASSISTANT, 3000.0)</t>
   </si>
 </sst>
 </file>
@@ -611,7 +674,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -660,12 +723,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="38">
     <border>
@@ -1130,7 +1187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1144,10 +1201,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1162,10 +1215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1198,36 +1247,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1251,20 +1275,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1326,6 +1341,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1353,33 +1377,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1390,6 +1387,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1398,11 +1398,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1410,14 +1449,71 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1437,144 +1533,56 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2566,158 +2574,158 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L2" s="81" t="s">
+      <c r="L2" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="86" t="s">
+      <c r="L3" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="88" t="s">
+      <c r="M3" s="74"/>
+      <c r="N3" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="89"/>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="77"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="L4" s="91" t="s">
+      <c r="L4" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="91"/>
-      <c r="N4" s="65" t="s">
+      <c r="M4" s="78"/>
+      <c r="N4" s="49" t="s">
         <v>28</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="88">
+      <c r="P4" s="75">
         <v>1211</v>
       </c>
-      <c r="Q4" s="90"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="75"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="2:17" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="56"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="56"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="56"/>
+      <c r="B9" s="41"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="56"/>
+      <c r="B10" s="41"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="56"/>
+      <c r="B11" s="41"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="56"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="56"/>
+      <c r="B12" s="41"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
+      <c r="B13" s="41"/>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
+      <c r="B15" s="41"/>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
+      <c r="B16" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2741,7 +2749,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:N9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,538 +2771,600 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
-      <c r="D1" s="83" t="s">
+      <c r="B1" s="15"/>
+      <c r="D1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
-    </row>
-    <row r="2" spans="2:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="2:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="51" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
+    <row r="3" spans="2:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
-      <c r="E3" s="67" t="s">
+      <c r="E3" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="80"/>
-    </row>
-    <row r="5" spans="2:16" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="103" t="s">
+      <c r="H3" s="64"/>
+    </row>
+    <row r="5" spans="2:16" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="103"/>
-      <c r="H5" s="104" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="H5" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="103"/>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158"/>
-      <c r="J6" s="158"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="100" t="s">
+      <c r="H7" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="100" t="s">
+      <c r="I7" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="100"/>
-      <c r="K7" s="100"/>
-      <c r="L7" s="100"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="100" t="s">
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="P7" s="100"/>
+      <c r="P7" s="86"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="106"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="100"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
-      <c r="M8" s="100"/>
-      <c r="N8" s="100"/>
-      <c r="O8" s="98" t="s">
+      <c r="G8" s="85"/>
+      <c r="H8" s="86"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="P8" s="99"/>
+      <c r="P8" s="88"/>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="101">
+      <c r="B9" s="58">
         <v>1</v>
       </c>
-      <c r="C9" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="156"/>
-      <c r="E9" s="74"/>
-      <c r="G9" s="18">
+      <c r="C9" s="138" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="141"/>
+      <c r="G9" s="142">
         <v>1</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="143">
         <v>1</v>
       </c>
-      <c r="I9" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="J9" s="154"/>
-      <c r="K9" s="154"/>
-      <c r="L9" s="154"/>
-      <c r="M9" s="154"/>
-      <c r="N9" s="155"/>
-      <c r="O9" s="96" t="b">
+      <c r="I9" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="P9" s="97"/>
+      <c r="P9" s="145"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="102"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="74"/>
-      <c r="G10" s="18">
+      <c r="B10" s="58">
         <v>2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="C10" s="138"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="142">
+        <v>2</v>
+      </c>
+      <c r="H10" s="143">
         <v>1</v>
       </c>
-      <c r="I10" s="153" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" s="154"/>
-      <c r="K10" s="154"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="155"/>
-      <c r="O10" s="94" t="b">
+      <c r="I10" s="144" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="144"/>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144"/>
+      <c r="O10" s="146" t="b">
         <v>0</v>
       </c>
-      <c r="P10" s="95"/>
+      <c r="P10" s="146"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="101">
+      <c r="B11" s="58">
+        <v>3</v>
+      </c>
+      <c r="C11" s="138"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="142">
+        <v>3</v>
+      </c>
+      <c r="H11" s="143">
+        <v>1</v>
+      </c>
+      <c r="I11" s="144" t="s">
+        <v>101</v>
+      </c>
+      <c r="J11" s="144"/>
+      <c r="K11" s="144"/>
+      <c r="L11" s="144"/>
+      <c r="M11" s="144"/>
+      <c r="N11" s="144"/>
+      <c r="O11" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" s="146"/>
+    </row>
+    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="58">
+        <v>4</v>
+      </c>
+      <c r="C12" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="D12" s="141" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="141"/>
+      <c r="G12" s="142">
+        <v>4</v>
+      </c>
+      <c r="H12" s="143">
         <v>2</v>
       </c>
-      <c r="C11" s="139" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="156"/>
-      <c r="E11" s="74"/>
-      <c r="G11" s="18">
+      <c r="I12" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="144"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="144"/>
+      <c r="M12" s="144"/>
+      <c r="N12" s="144"/>
+      <c r="O12" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="145"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="58">
+        <v>5</v>
+      </c>
+      <c r="C13" s="138"/>
+      <c r="D13" s="141" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="141"/>
+      <c r="G13" s="142">
+        <v>5</v>
+      </c>
+      <c r="H13" s="143">
+        <v>2</v>
+      </c>
+      <c r="I13" s="144" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="144"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="144"/>
+      <c r="M13" s="144"/>
+      <c r="N13" s="144"/>
+      <c r="O13" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="145"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="58">
+        <v>6</v>
+      </c>
+      <c r="C14" s="138"/>
+      <c r="D14" s="141" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="141"/>
+      <c r="G14" s="142">
+        <v>6</v>
+      </c>
+      <c r="H14" s="143">
+        <v>2</v>
+      </c>
+      <c r="I14" s="144" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="144"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="144"/>
+      <c r="M14" s="144"/>
+      <c r="N14" s="144"/>
+      <c r="O14" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="145"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="58">
+        <v>7</v>
+      </c>
+      <c r="C15" s="138"/>
+      <c r="D15" s="141" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="141"/>
+      <c r="G15" s="142">
+        <v>7</v>
+      </c>
+      <c r="H15" s="143">
+        <v>2</v>
+      </c>
+      <c r="I15" s="144" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" s="144"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="144"/>
+      <c r="M15" s="144"/>
+      <c r="N15" s="144"/>
+      <c r="O15" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="145"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="58">
+        <v>8</v>
+      </c>
+      <c r="C16" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="141"/>
+      <c r="G16" s="142">
+        <v>8</v>
+      </c>
+      <c r="H16" s="143">
         <v>3</v>
       </c>
-      <c r="H11" s="17">
-        <v>2</v>
-      </c>
-      <c r="I11" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="155"/>
-      <c r="O11" s="96" t="b">
+      <c r="I16" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="144"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="144"/>
+      <c r="M16" s="144"/>
+      <c r="N16" s="144"/>
+      <c r="O16" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="97"/>
-    </row>
-    <row r="12" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="102"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="74"/>
-      <c r="G12" s="18">
+      <c r="P16" s="145"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="58">
+        <v>9</v>
+      </c>
+      <c r="C17" s="138"/>
+      <c r="D17" s="141"/>
+      <c r="E17" s="141" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="142">
+        <v>9</v>
+      </c>
+      <c r="H17" s="143">
+        <v>3</v>
+      </c>
+      <c r="I17" s="144" t="s">
+        <v>105</v>
+      </c>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="144"/>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144"/>
+      <c r="O17" s="146" t="b">
+        <v>0</v>
+      </c>
+      <c r="P17" s="146"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="58">
+        <v>10</v>
+      </c>
+      <c r="C18" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="141" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="141"/>
+      <c r="G18" s="142">
+        <v>10</v>
+      </c>
+      <c r="H18" s="143">
         <v>4</v>
       </c>
-      <c r="H12" s="33">
-        <v>3</v>
-      </c>
-      <c r="I12" s="153" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="154"/>
-      <c r="K12" s="154"/>
-      <c r="L12" s="154"/>
-      <c r="M12" s="154"/>
-      <c r="N12" s="155"/>
-      <c r="O12" s="94" t="b">
+      <c r="I18" s="144" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="145" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="145"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="58">
+        <v>11</v>
+      </c>
+      <c r="C19" s="139"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="56">
+        <v>11</v>
+      </c>
+      <c r="H19" s="143">
+        <v>4</v>
+      </c>
+      <c r="I19" s="144" t="s">
+        <v>76</v>
+      </c>
+      <c r="J19" s="144"/>
+      <c r="K19" s="144"/>
+      <c r="L19" s="144"/>
+      <c r="M19" s="144"/>
+      <c r="N19" s="144"/>
+      <c r="O19" s="146" t="b">
         <v>0</v>
       </c>
-      <c r="P12" s="95"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="101">
-        <v>3</v>
-      </c>
-      <c r="C13" s="139" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="157"/>
-      <c r="G13" s="18">
+      <c r="P19" s="146"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="58">
+        <v>12</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="58"/>
+      <c r="G20" s="56">
+        <v>12</v>
+      </c>
+      <c r="H20" s="143">
         <v>5</v>
       </c>
-      <c r="H13" s="17">
-        <v>3</v>
-      </c>
-      <c r="I13" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="154"/>
-      <c r="K13" s="154"/>
-      <c r="L13" s="154"/>
-      <c r="M13" s="154"/>
-      <c r="N13" s="155"/>
-      <c r="O13" s="96" t="b">
+      <c r="I20" s="144" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="144"/>
+      <c r="K20" s="144"/>
+      <c r="L20" s="144"/>
+      <c r="M20" s="144"/>
+      <c r="N20" s="144"/>
+      <c r="O20" s="145" t="b">
         <v>1</v>
       </c>
-      <c r="P13" s="97"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="157"/>
-      <c r="G14" s="18">
-        <v>6</v>
-      </c>
-      <c r="H14" s="33">
-        <v>4</v>
-      </c>
-      <c r="I14" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="J14" s="154"/>
-      <c r="K14" s="154"/>
-      <c r="L14" s="154"/>
-      <c r="M14" s="154"/>
-      <c r="N14" s="155"/>
-      <c r="O14" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="97"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="101">
-        <v>4</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="157"/>
-      <c r="G15" s="18">
-        <v>7</v>
-      </c>
-      <c r="H15" s="33">
-        <v>4</v>
-      </c>
-      <c r="I15" s="153" t="s">
-        <v>67</v>
-      </c>
-      <c r="J15" s="154"/>
-      <c r="K15" s="154"/>
-      <c r="L15" s="154"/>
-      <c r="M15" s="154"/>
-      <c r="N15" s="155"/>
-      <c r="O15" s="94" t="b">
+      <c r="P20" s="145"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="58">
+        <v>13</v>
+      </c>
+      <c r="C21" s="139"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="147">
+        <v>13</v>
+      </c>
+      <c r="H21" s="148">
+        <v>5</v>
+      </c>
+      <c r="I21" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="144"/>
+      <c r="K21" s="144"/>
+      <c r="L21" s="144"/>
+      <c r="M21" s="144"/>
+      <c r="N21" s="144"/>
+      <c r="O21" s="146" t="b">
         <v>0</v>
       </c>
-      <c r="P15" s="95"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="102"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="157"/>
-      <c r="G16" s="18">
-        <v>8</v>
-      </c>
-      <c r="H16" s="33">
-        <v>5</v>
-      </c>
-      <c r="I16" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" s="154"/>
-      <c r="K16" s="154"/>
-      <c r="L16" s="154"/>
-      <c r="M16" s="154"/>
-      <c r="N16" s="155"/>
-      <c r="O16" s="96" t="b">
-        <v>1</v>
-      </c>
-      <c r="P16" s="97"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="101">
-        <v>5</v>
-      </c>
-      <c r="C17" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="157"/>
-      <c r="G17" s="18">
-        <v>9</v>
-      </c>
-      <c r="H17" s="33">
-        <v>5</v>
-      </c>
-      <c r="I17" s="153" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" s="154"/>
-      <c r="K17" s="154"/>
-      <c r="L17" s="154"/>
-      <c r="M17" s="154"/>
-      <c r="N17" s="155"/>
-      <c r="O17" s="94" t="b">
-        <v>0</v>
-      </c>
-      <c r="P17" s="95"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="157"/>
-      <c r="G18" s="18">
-        <v>10</v>
-      </c>
-      <c r="H18" s="33"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="154"/>
-      <c r="K18" s="154"/>
-      <c r="L18" s="154"/>
-      <c r="M18" s="154"/>
-      <c r="N18" s="155"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="95"/>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B19" s="74">
-        <v>6</v>
-      </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="92"/>
-      <c r="N19" s="93"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="95"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B20" s="74">
-        <v>7</v>
-      </c>
-      <c r="C20" s="102"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="93"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="74">
-        <v>8</v>
-      </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
+      <c r="P21" s="146"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="74">
-        <v>9</v>
-      </c>
-      <c r="C22" s="102"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
+      <c r="B22" s="58">
+        <v>14</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="56"/>
-      <c r="D23" s="56" t="s">
+      <c r="C23" s="41"/>
+      <c r="D23" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="79" t="s">
+      <c r="A24" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C25" s="56"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="56"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C26" s="56"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C27" s="56"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C28" s="56"/>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="H5:J6"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="I7:N8"/>
-    <mergeCell ref="I9:N9"/>
-    <mergeCell ref="I10:N10"/>
+  <mergeCells count="39">
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="O16:P16"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="O15:P15"/>
@@ -3304,13 +3374,22 @@
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="H5:J6"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:N8"/>
+    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="I18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3326,14 +3405,14 @@
   <dimension ref="A1:R43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" style="56" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="41" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
@@ -3349,1007 +3428,1053 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="85"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="2:17" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="67" t="s">
+    <row r="3" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="67"/>
-    </row>
-    <row r="4" spans="2:17" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="J4" s="67"/>
-    </row>
-    <row r="5" spans="2:17" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="111" t="s">
+      <c r="J3" s="51"/>
+    </row>
+    <row r="4" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+    </row>
+    <row r="5" spans="2:17" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="93" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="H5" s="104" t="s">
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="H5" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
     </row>
     <row r="6" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="104"/>
-      <c r="J6" s="104"/>
-      <c r="K6" s="104"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
     </row>
     <row r="7" spans="2:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F7" s="5"/>
-      <c r="H7" s="105" t="s">
+      <c r="H7" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="105" t="s">
+      <c r="I7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="105" t="s">
+      <c r="J7" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="107" t="s">
+      <c r="K7" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="L7" s="144" t="s">
+      <c r="L7" s="95" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="145"/>
-      <c r="N7" s="145"/>
-      <c r="O7" s="145"/>
-      <c r="P7" s="146"/>
-      <c r="Q7" s="76" t="s">
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="60" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="99"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="3"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="147"/>
-      <c r="M8" s="148"/>
-      <c r="N8" s="148"/>
-      <c r="O8" s="148"/>
-      <c r="P8" s="149"/>
-      <c r="Q8" s="73" t="s">
+      <c r="H8" s="85"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="57" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="101" t="s">
+      <c r="B9" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="101">
+      <c r="C9" s="79">
         <v>1</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="58">
         <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="H9" s="56">
+        <v>1</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
+      <c r="J9" s="45">
+        <v>1</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="89" t="s">
         <v>55</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="H9" s="72">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90"/>
+      <c r="O9" s="90"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="61">
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="58">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="H10" s="56">
+        <v>2</v>
+      </c>
+      <c r="I10" s="45">
+        <v>2</v>
+      </c>
+      <c r="J10" s="45">
         <v>1</v>
       </c>
-      <c r="J9" s="61">
+      <c r="K10" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="89" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="90"/>
+      <c r="N10" s="90"/>
+      <c r="O10" s="90"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="58">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="H11" s="56">
+        <v>3</v>
+      </c>
+      <c r="I11" s="45">
+        <v>3</v>
+      </c>
+      <c r="J11" s="45">
         <v>1</v>
       </c>
-      <c r="K9" s="61" t="s">
+      <c r="K11" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="151"/>
-      <c r="P9" s="152"/>
-      <c r="Q9" s="162" t="b">
+      <c r="L11" s="89" t="s">
+        <v>113</v>
+      </c>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="58">
+        <v>4</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="H12" s="56">
+        <v>4</v>
+      </c>
+      <c r="I12" s="45">
+        <v>4</v>
+      </c>
+      <c r="J12" s="45">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="113"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="74">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="H10" s="72">
-        <v>2</v>
-      </c>
-      <c r="I10" s="61">
-        <v>2</v>
-      </c>
-      <c r="J10" s="61">
-        <v>1</v>
-      </c>
-      <c r="K10" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="150" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="151"/>
-      <c r="N10" s="151"/>
-      <c r="O10" s="151"/>
-      <c r="P10" s="152"/>
-      <c r="Q10" s="161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
-      <c r="D11" s="74">
-        <v>3</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="H11" s="72">
-        <v>3</v>
-      </c>
-      <c r="I11" s="61">
-        <v>3</v>
-      </c>
-      <c r="J11" s="61">
-        <v>1</v>
-      </c>
-      <c r="K11" s="62" t="s">
+      <c r="K12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="91"/>
+      <c r="Q12" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="L11" s="150" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="151"/>
-      <c r="N11" s="151"/>
-      <c r="O11" s="151"/>
-      <c r="P11" s="152"/>
-      <c r="Q11" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="113"/>
-      <c r="C12" s="113"/>
-      <c r="D12" s="74">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-      <c r="H12" s="72">
-        <v>4</v>
-      </c>
-      <c r="I12" s="61">
-        <v>7</v>
-      </c>
-      <c r="J12" s="61">
-        <v>2</v>
-      </c>
-      <c r="K12" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="151"/>
-      <c r="N12" s="151"/>
-      <c r="O12" s="151"/>
-      <c r="P12" s="152"/>
-      <c r="Q12" s="162" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="74">
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="58">
         <v>5</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="3"/>
-      <c r="H13" s="72">
+      <c r="H13" s="56">
         <v>5</v>
       </c>
-      <c r="I13" s="61">
-        <v>8</v>
-      </c>
-      <c r="J13" s="61">
+      <c r="I13" s="45">
+        <v>7</v>
+      </c>
+      <c r="J13" s="45">
         <v>2</v>
       </c>
-      <c r="K13" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="L13" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="151"/>
-      <c r="N13" s="151"/>
-      <c r="O13" s="151"/>
-      <c r="P13" s="152"/>
-      <c r="Q13" s="62" t="s">
-        <v>93</v>
+      <c r="K13" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="90"/>
+      <c r="N13" s="90"/>
+      <c r="O13" s="90"/>
+      <c r="P13" s="91"/>
+      <c r="Q13" s="69" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="102"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="74">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="58">
         <v>6</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="3"/>
-      <c r="H14" s="72">
+      <c r="H14" s="56">
         <v>6</v>
       </c>
-      <c r="I14" s="61">
+      <c r="I14" s="45">
+        <v>8</v>
+      </c>
+      <c r="J14" s="45">
+        <v>2</v>
+      </c>
+      <c r="K14" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="79">
+        <v>2</v>
+      </c>
+      <c r="D15" s="58">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="H15" s="56">
+        <v>7</v>
+      </c>
+      <c r="I15" s="45">
         <v>9</v>
       </c>
-      <c r="J14" s="61">
+      <c r="J15" s="45">
         <v>2</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K15" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="M15" s="90"/>
+      <c r="N15" s="90"/>
+      <c r="O15" s="90"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="58">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="H16" s="56">
+        <v>8</v>
+      </c>
+      <c r="I16" s="45">
+        <v>10</v>
+      </c>
+      <c r="J16" s="45">
+        <v>2</v>
+      </c>
+      <c r="K16" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90"/>
+      <c r="O16" s="90"/>
+      <c r="P16" s="91"/>
+      <c r="Q16" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="58">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="H17" s="56">
+        <v>9</v>
+      </c>
+      <c r="I17" s="45">
+        <v>11</v>
+      </c>
+      <c r="J17" s="45">
+        <v>2</v>
+      </c>
+      <c r="K17" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L17" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="91"/>
+      <c r="Q17" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="150" t="s">
-        <v>84</v>
-      </c>
-      <c r="M14" s="151"/>
-      <c r="N14" s="151"/>
-      <c r="O14" s="151"/>
-      <c r="P14" s="152"/>
-      <c r="Q14" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="101" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="101">
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="58">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" s="56">
+        <v>10</v>
+      </c>
+      <c r="I18" s="45">
+        <v>12</v>
+      </c>
+      <c r="J18" s="45">
         <v>2</v>
       </c>
-      <c r="D15" s="74">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="H15" s="72">
-        <v>7</v>
-      </c>
-      <c r="I15" s="61">
+      <c r="K18" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L18" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="M18" s="90"/>
+      <c r="N18" s="90"/>
+      <c r="O18" s="90"/>
+      <c r="P18" s="91"/>
+      <c r="Q18" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="58">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="H19" s="56">
+        <v>11</v>
+      </c>
+      <c r="I19" s="45">
         <v>13</v>
       </c>
-      <c r="J15" s="61">
+      <c r="J19" s="45">
         <v>3</v>
       </c>
-      <c r="K15" s="61" t="s">
+      <c r="K19" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="L15" s="150" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="151"/>
-      <c r="N15" s="151"/>
-      <c r="O15" s="151"/>
-      <c r="P15" s="152"/>
-      <c r="Q15" s="162" t="b">
+      <c r="L19" s="89" t="s">
+        <v>74</v>
+      </c>
+      <c r="M19" s="90"/>
+      <c r="N19" s="90"/>
+      <c r="O19" s="90"/>
+      <c r="P19" s="91"/>
+      <c r="Q19" s="69" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="113"/>
-      <c r="C16" s="113"/>
-      <c r="D16" s="74">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="58">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="H20" s="56">
+        <v>12</v>
+      </c>
+      <c r="I20" s="45">
+        <v>14</v>
+      </c>
+      <c r="J20" s="45">
+        <v>3</v>
+      </c>
+      <c r="K20" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="91"/>
+      <c r="Q20" s="68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B21" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="79">
+        <v>3</v>
+      </c>
+      <c r="D21" s="58">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="H21" s="56">
+        <v>13</v>
+      </c>
+      <c r="I21" s="45">
+        <v>15</v>
+      </c>
+      <c r="J21" s="45">
+        <v>3</v>
+      </c>
+      <c r="K21" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="91"/>
+      <c r="Q21" s="46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="58">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="H22" s="56">
+        <v>14</v>
+      </c>
+      <c r="I22" s="45">
+        <v>19</v>
+      </c>
+      <c r="J22" s="45">
+        <v>4</v>
+      </c>
+      <c r="K22" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="89" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="91"/>
+      <c r="Q22" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="58">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="H23" s="56">
+        <v>15</v>
+      </c>
+      <c r="I23" s="45">
+        <v>20</v>
+      </c>
+      <c r="J23" s="45">
+        <v>4</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="H16" s="72">
-        <v>8</v>
-      </c>
-      <c r="I16" s="61">
-        <v>14</v>
-      </c>
-      <c r="J16" s="61">
-        <v>3</v>
-      </c>
-      <c r="K16" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L16" s="150" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="151"/>
-      <c r="N16" s="151"/>
-      <c r="O16" s="151"/>
-      <c r="P16" s="152"/>
-      <c r="Q16" s="161" t="b">
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="91"/>
+      <c r="Q23" s="68" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
-      <c r="D17" s="74">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="H17" s="72">
-        <v>9</v>
-      </c>
-      <c r="I17" s="61">
-        <v>15</v>
-      </c>
-      <c r="J17" s="61">
-        <v>3</v>
-      </c>
-      <c r="K17" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="L17" s="150" t="s">
-        <v>86</v>
-      </c>
-      <c r="M17" s="151"/>
-      <c r="N17" s="151"/>
-      <c r="O17" s="151"/>
-      <c r="P17" s="152"/>
-      <c r="Q17" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B18" s="113"/>
-      <c r="C18" s="113"/>
-      <c r="D18" s="74">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-      <c r="H18" s="72">
-        <v>10</v>
-      </c>
-      <c r="I18" s="61">
-        <v>19</v>
-      </c>
-      <c r="J18" s="61">
-        <v>4</v>
-      </c>
-      <c r="K18" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" s="150" t="s">
-        <v>57</v>
-      </c>
-      <c r="M18" s="151"/>
-      <c r="N18" s="151"/>
-      <c r="O18" s="151"/>
-      <c r="P18" s="152"/>
-      <c r="Q18" s="162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="113"/>
-      <c r="C19" s="113"/>
-      <c r="D19" s="74">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-      <c r="H19" s="72">
-        <v>11</v>
-      </c>
-      <c r="I19" s="61">
-        <v>20</v>
-      </c>
-      <c r="J19" s="61">
-        <v>4</v>
-      </c>
-      <c r="K19" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L19" s="150" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="151"/>
-      <c r="N19" s="151"/>
-      <c r="O19" s="151"/>
-      <c r="P19" s="152"/>
-      <c r="Q19" s="161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="74">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-      <c r="H20" s="72">
-        <v>12</v>
-      </c>
-      <c r="I20" s="61">
-        <v>21</v>
-      </c>
-      <c r="J20" s="61">
-        <v>4</v>
-      </c>
-      <c r="K20" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="150" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="151"/>
-      <c r="N20" s="151"/>
-      <c r="O20" s="151"/>
-      <c r="P20" s="152"/>
-      <c r="Q20" s="62" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B21" s="101" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="101">
-        <v>3</v>
-      </c>
-      <c r="D21" s="74">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="H21" s="72">
-        <v>13</v>
-      </c>
-      <c r="I21" s="61">
-        <v>25</v>
-      </c>
-      <c r="J21" s="61">
-        <v>5</v>
-      </c>
-      <c r="K21" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L21" s="150" t="s">
-        <v>89</v>
-      </c>
-      <c r="M21" s="151"/>
-      <c r="N21" s="151"/>
-      <c r="O21" s="151"/>
-      <c r="P21" s="152"/>
-      <c r="Q21" s="162" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B22" s="113"/>
-      <c r="C22" s="113"/>
-      <c r="D22" s="74">
-        <v>14</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="H22" s="72">
-        <v>14</v>
-      </c>
-      <c r="I22" s="61">
-        <v>26</v>
-      </c>
-      <c r="J22" s="61">
-        <v>5</v>
-      </c>
-      <c r="K22" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L22" s="150" t="s">
-        <v>90</v>
-      </c>
-      <c r="M22" s="151"/>
-      <c r="N22" s="151"/>
-      <c r="O22" s="151"/>
-      <c r="P22" s="152"/>
-      <c r="Q22" s="161" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="74">
-        <v>15</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="H23" s="72">
-        <v>15</v>
-      </c>
-      <c r="I23" s="61">
-        <v>27</v>
-      </c>
-      <c r="J23" s="61">
-        <v>5</v>
-      </c>
-      <c r="K23" s="61" t="s">
-        <v>54</v>
-      </c>
-      <c r="L23" s="150" t="s">
-        <v>91</v>
-      </c>
-      <c r="M23" s="151"/>
-      <c r="N23" s="151"/>
-      <c r="O23" s="151"/>
-      <c r="P23" s="152"/>
-      <c r="Q23" s="161" t="b">
-        <v>0</v>
-      </c>
-    </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="74">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="58">
         <v>16</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="3"/>
-      <c r="H24" s="72">
+      <c r="H24" s="56">
         <v>16</v>
       </c>
-      <c r="I24" s="61">
-        <v>28</v>
-      </c>
-      <c r="J24" s="61">
-        <v>5</v>
-      </c>
-      <c r="K24" s="62" t="s">
+      <c r="I24" s="45">
+        <v>21</v>
+      </c>
+      <c r="J24" s="45">
+        <v>4</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="91"/>
+      <c r="Q24" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="L24" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="M24" s="151"/>
-      <c r="N24" s="151"/>
-      <c r="O24" s="151"/>
-      <c r="P24" s="152"/>
-      <c r="Q24" s="62" t="s">
-        <v>93</v>
-      </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B25" s="113"/>
-      <c r="C25" s="113"/>
-      <c r="D25" s="74">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="58">
         <v>17</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="3"/>
-      <c r="H25" s="72">
+      <c r="H25" s="56">
         <v>17</v>
       </c>
-      <c r="I25" s="61"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="61"/>
+      <c r="I25" s="45">
+        <v>25</v>
+      </c>
+      <c r="J25" s="45">
+        <v>5</v>
+      </c>
+      <c r="K25" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L25" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="91"/>
+      <c r="Q25" s="69" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="74">
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="58">
         <v>18</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="3"/>
-      <c r="H26" s="72">
+      <c r="H26" s="56">
         <v>18</v>
       </c>
-      <c r="I26" s="61"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="62"/>
+      <c r="I26" s="45">
+        <v>26</v>
+      </c>
+      <c r="J26" s="45">
+        <v>5</v>
+      </c>
+      <c r="K26" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L26" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="91"/>
+      <c r="Q26" s="68" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="79" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="101">
+      <c r="C27" s="79">
         <v>4</v>
       </c>
-      <c r="D27" s="74">
+      <c r="D27" s="58">
         <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="H27" s="56">
+        <v>19</v>
+      </c>
+      <c r="I27" s="45">
+        <v>27</v>
+      </c>
+      <c r="J27" s="45">
+        <v>5</v>
+      </c>
+      <c r="K27" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="L27" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" s="90"/>
+      <c r="N27" s="90"/>
+      <c r="O27" s="90"/>
+      <c r="P27" s="91"/>
+      <c r="Q27" s="68" t="b">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="92"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="58">
+        <v>20</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="H28" s="56">
+        <v>20</v>
+      </c>
+      <c r="I28" s="45">
+        <v>28</v>
+      </c>
+      <c r="J28" s="45">
+        <v>5</v>
+      </c>
+      <c r="K28" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="H27" s="72">
-        <v>19</v>
-      </c>
-      <c r="I27" s="61"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="77"/>
-      <c r="R27" s="3"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B28" s="113"/>
-      <c r="C28" s="113"/>
-      <c r="D28" s="74">
-        <v>20</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="3"/>
-      <c r="H28" s="72">
-        <v>20</v>
-      </c>
-      <c r="I28" s="61"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="62"/>
+      <c r="L28" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
+      <c r="P28" s="91"/>
+      <c r="Q28" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="R28" s="3"/>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
-      <c r="D29" s="74">
+      <c r="B29" s="92"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="58">
         <v>21</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F29" s="3"/>
-      <c r="H29" s="72">
+      <c r="H29" s="56">
         <v>21</v>
       </c>
-      <c r="I29" s="61"/>
+      <c r="I29" s="45"/>
       <c r="J29" s="8"/>
-      <c r="K29" s="27"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="8"/>
       <c r="M29" s="8"/>
       <c r="N29" s="8"/>
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
-      <c r="Q29" s="61"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="3"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B30" s="113"/>
-      <c r="C30" s="113"/>
-      <c r="D30" s="74">
+      <c r="B30" s="92"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="58">
         <v>22</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="3"/>
-      <c r="H30" s="72">
+      <c r="H30" s="56">
         <v>22</v>
       </c>
-      <c r="I30" s="61"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="8"/>
-      <c r="K30" s="27"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="8"/>
       <c r="M30" s="8"/>
       <c r="N30" s="8"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
-      <c r="Q30" s="61"/>
+      <c r="Q30" s="45"/>
       <c r="R30" s="3"/>
     </row>
     <row r="31" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="113"/>
-      <c r="C31" s="113"/>
-      <c r="D31" s="74">
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="58">
         <v>23</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="3"/>
-      <c r="H31" s="72">
+      <c r="H31" s="56">
         <v>23</v>
       </c>
-      <c r="I31" s="61"/>
+      <c r="I31" s="45"/>
       <c r="J31" s="8"/>
-      <c r="K31" s="27"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="8"/>
       <c r="M31" s="8"/>
       <c r="N31" s="8"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
-      <c r="Q31" s="61"/>
+      <c r="Q31" s="45"/>
     </row>
     <row r="32" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="74">
+      <c r="B32" s="80"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="58">
         <v>24</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="H32" s="72">
+      <c r="H32" s="56">
         <v>24</v>
       </c>
-      <c r="I32" s="61"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="28"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="62"/>
+      <c r="I32" s="45"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="46"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B33" s="101" t="s">
+      <c r="B33" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="79">
         <v>5</v>
       </c>
-      <c r="D33" s="74">
+      <c r="D33" s="58">
         <v>25</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H33" s="72">
+        <v>63</v>
+      </c>
+      <c r="H33" s="56">
         <v>25</v>
       </c>
-      <c r="I33" s="61"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="77"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="61"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B34" s="113"/>
-      <c r="C34" s="113"/>
-      <c r="D34" s="74">
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="58">
         <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H34" s="72">
+        <v>65</v>
+      </c>
+      <c r="H34" s="56">
         <v>26</v>
       </c>
-      <c r="I34" s="61"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="62"/>
+      <c r="I34" s="45"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="46"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="74">
+      <c r="B35" s="92"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="58">
         <v>27</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="H35" s="72">
+        <v>64</v>
+      </c>
+      <c r="H35" s="56">
         <v>27</v>
       </c>
-      <c r="I35" s="61"/>
+      <c r="I35" s="45"/>
       <c r="J35" s="8"/>
-      <c r="K35" s="27"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="8"/>
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
-      <c r="Q35" s="61"/>
+      <c r="Q35" s="45"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B36" s="113"/>
-      <c r="C36" s="113"/>
-      <c r="D36" s="74">
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="58">
         <v>28</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="72">
+        <v>70</v>
+      </c>
+      <c r="H36" s="56">
         <v>28</v>
       </c>
-      <c r="I36" s="61"/>
+      <c r="I36" s="45"/>
       <c r="J36" s="8"/>
-      <c r="K36" s="27"/>
+      <c r="K36" s="23"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="8"/>
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
-      <c r="Q36" s="61"/>
+      <c r="Q36" s="45"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B37" s="113"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="74">
+      <c r="B37" s="92"/>
+      <c r="C37" s="92"/>
+      <c r="D37" s="58">
         <v>29</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="H37" s="72">
+      <c r="H37" s="56">
         <v>29</v>
       </c>
-      <c r="I37" s="61"/>
+      <c r="I37" s="45"/>
       <c r="J37" s="8"/>
-      <c r="K37" s="27"/>
+      <c r="K37" s="23"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="8"/>
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
-      <c r="Q37" s="61"/>
+      <c r="Q37" s="45"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B38" s="102"/>
-      <c r="C38" s="102"/>
-      <c r="D38" s="74">
+      <c r="B38" s="80"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="58">
         <v>30</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="H38" s="72">
+      <c r="H38" s="56">
         <v>30</v>
       </c>
-      <c r="I38" s="61"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="62"/>
+      <c r="I38" s="45"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="46"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+      <c r="A40" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="109"/>
-      <c r="I40" s="110"/>
-      <c r="J40" s="56"/>
-      <c r="K40" s="56"/>
-      <c r="L40" s="56"/>
-      <c r="M40" s="56"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="56"/>
-      <c r="P40" s="56"/>
-      <c r="Q40" s="56"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J41" s="56"/>
-      <c r="K41" s="56"/>
-      <c r="L41" s="56"/>
-      <c r="M41" s="56"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="56"/>
-      <c r="P41" s="56"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="L21:P21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="L14:P14"/>
-    <mergeCell ref="L15:P15"/>
-    <mergeCell ref="L16:P16"/>
-    <mergeCell ref="L17:P17"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="L10:P10"/>
-    <mergeCell ref="L11:P11"/>
-    <mergeCell ref="L12:P12"/>
-    <mergeCell ref="L13:P13"/>
+  <mergeCells count="40">
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="H5:M6"/>
+    <mergeCell ref="L7:P8"/>
     <mergeCell ref="B27:B32"/>
     <mergeCell ref="C27:C32"/>
     <mergeCell ref="B33:B38"/>
@@ -4360,16 +4485,22 @@
     <mergeCell ref="C15:C20"/>
     <mergeCell ref="B21:B26"/>
     <mergeCell ref="C21:C26"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="H5:M6"/>
-    <mergeCell ref="L7:P8"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="L10:P10"/>
+    <mergeCell ref="L11:P11"/>
+    <mergeCell ref="L12:P12"/>
+    <mergeCell ref="L13:P13"/>
+    <mergeCell ref="L14:P14"/>
+    <mergeCell ref="L15:P15"/>
+    <mergeCell ref="L16:P16"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="L23:P23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4385,7 +4516,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:J7"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4399,650 +4530,678 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B1" s="19"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="85"/>
-    </row>
-    <row r="2" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="2:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="124" t="s">
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="2:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15"/>
+      <c r="C3" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="124"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="124"/>
-      <c r="G3" s="124"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="125"/>
-      <c r="F4" s="125"/>
-      <c r="G4" s="125"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="132"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="105" t="s">
+      <c r="B5" s="84" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="115" t="s">
+      <c r="C5" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="159" t="s">
+      <c r="E5" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="78" t="s">
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="134"/>
+      <c r="I5" s="134"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="56"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="114"/>
-      <c r="C6" s="116"/>
-      <c r="D6" s="117"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="142"/>
-      <c r="J6" s="143"/>
-      <c r="K6" s="29" t="s">
+      <c r="B6" s="125"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="56"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14">
+      <c r="B7" s="12">
         <v>1</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="45">
         <v>1</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
+        <v>2</v>
+      </c>
+      <c r="C8" s="45">
+        <v>1</v>
+      </c>
+      <c r="D8" s="45">
+        <v>2</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="106"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L8" s="41"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="44">
+        <v>3</v>
+      </c>
+      <c r="C9" s="45">
+        <v>1</v>
+      </c>
+      <c r="D9" s="45">
+        <v>3</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="106"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="107"/>
+      <c r="K9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L9" s="41"/>
+    </row>
+    <row r="10" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
+        <v>4</v>
+      </c>
+      <c r="C10" s="45">
+        <v>2</v>
+      </c>
+      <c r="D10" s="45">
+        <v>7</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="106"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="107"/>
+      <c r="K10" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" s="41"/>
+    </row>
+    <row r="11" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="44">
+        <v>5</v>
+      </c>
+      <c r="C11" s="45">
+        <v>2</v>
+      </c>
+      <c r="D11" s="45">
+        <v>8</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L11" s="41"/>
+    </row>
+    <row r="12" spans="2:12" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44">
+        <v>6</v>
+      </c>
+      <c r="C12" s="45">
+        <v>2</v>
+      </c>
+      <c r="D12" s="45">
+        <v>9</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="106"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L12" s="41"/>
+    </row>
+    <row r="13" spans="2:12" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44">
+        <v>7</v>
+      </c>
+      <c r="C13" s="45">
+        <v>2</v>
+      </c>
+      <c r="D13" s="45">
+        <v>10</v>
+      </c>
+      <c r="E13" s="105" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="106"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="44">
+        <v>8</v>
+      </c>
+      <c r="C14" s="45">
+        <v>3</v>
+      </c>
+      <c r="D14" s="45">
+        <v>13</v>
+      </c>
+      <c r="E14" s="105" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="41"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="44">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45">
+        <v>3</v>
+      </c>
+      <c r="D15" s="45">
+        <v>14</v>
+      </c>
+      <c r="E15" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="F7" s="164"/>
-      <c r="G7" s="164"/>
-      <c r="H7" s="164"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="162" t="b">
+      <c r="F15" s="106"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
+      <c r="J15" s="107"/>
+      <c r="K15" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="41"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="44">
+        <v>10</v>
+      </c>
+      <c r="C16" s="45">
+        <v>4</v>
+      </c>
+      <c r="D16" s="45">
+        <v>19</v>
+      </c>
+      <c r="E16" s="105" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="106"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
+      <c r="J16" s="107"/>
+      <c r="K16" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="L7" s="56"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="60">
-        <v>2</v>
-      </c>
-      <c r="C8" s="61">
+      <c r="L16" s="41"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="44">
+        <v>11</v>
+      </c>
+      <c r="C17" s="45">
+        <v>4</v>
+      </c>
+      <c r="D17" s="45">
+        <v>20</v>
+      </c>
+      <c r="E17" s="105" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="106"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="41"/>
+    </row>
+    <row r="18" spans="1:12" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="44">
+        <v>12</v>
+      </c>
+      <c r="C18" s="45">
+        <v>5</v>
+      </c>
+      <c r="D18" s="45">
+        <v>25</v>
+      </c>
+      <c r="E18" s="105" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="D8" s="61">
-        <v>2</v>
-      </c>
-      <c r="E8" s="163" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="164"/>
-      <c r="G8" s="164"/>
-      <c r="H8" s="164"/>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
-      <c r="K8" s="62" t="b">
+      <c r="L18" s="41"/>
+    </row>
+    <row r="19" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="44">
+        <v>13</v>
+      </c>
+      <c r="C19" s="45">
+        <v>5</v>
+      </c>
+      <c r="D19" s="45">
+        <v>26</v>
+      </c>
+      <c r="E19" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="106"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="L8" s="56"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="60">
-        <v>3</v>
-      </c>
-      <c r="C9" s="61">
-        <v>2</v>
-      </c>
-      <c r="D9" s="61">
-        <v>7</v>
-      </c>
-      <c r="E9" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" s="164"/>
-      <c r="G9" s="164"/>
-      <c r="H9" s="164"/>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="56"/>
-    </row>
-    <row r="10" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="60">
-        <v>4</v>
-      </c>
-      <c r="C10" s="61">
-        <v>3</v>
-      </c>
-      <c r="D10" s="61">
-        <v>13</v>
-      </c>
-      <c r="E10" s="163" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10" s="56"/>
-    </row>
-    <row r="11" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="60">
+      <c r="L19" s="41"/>
+    </row>
+    <row r="20" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="44">
+        <v>14</v>
+      </c>
+      <c r="C20" s="45">
         <v>5</v>
       </c>
-      <c r="C11" s="61">
-        <v>3</v>
-      </c>
-      <c r="D11" s="61">
-        <v>14</v>
-      </c>
-      <c r="E11" s="163" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="62" t="b">
+      <c r="D20" s="45">
+        <v>27</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="106"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
+      <c r="K20" s="46" t="b">
         <v>0</v>
       </c>
-      <c r="L11" s="56"/>
-    </row>
-    <row r="12" spans="2:12" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="60">
-        <v>6</v>
-      </c>
-      <c r="C12" s="61">
-        <v>4</v>
-      </c>
-      <c r="D12" s="61">
+      <c r="L20" s="41"/>
+    </row>
+    <row r="21" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="44">
+        <v>15</v>
+      </c>
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="41"/>
+    </row>
+    <row r="22" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="44">
+        <v>16</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="41"/>
+    </row>
+    <row r="23" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="47">
+        <v>17</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="41"/>
+    </row>
+    <row r="24" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="47">
+        <v>18</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="41"/>
+    </row>
+    <row r="25" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="47">
         <v>19</v>
       </c>
-      <c r="E12" s="163" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L12" s="56"/>
-    </row>
-    <row r="13" spans="2:12" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="60">
-        <v>7</v>
-      </c>
-      <c r="C13" s="61">
-        <v>4</v>
-      </c>
-      <c r="D13" s="61">
+      <c r="C25" s="31"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="41"/>
+    </row>
+    <row r="26" spans="1:12" s="41" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="47">
         <v>20</v>
       </c>
-      <c r="E13" s="163" t="s">
-        <v>87</v>
-      </c>
-      <c r="F13" s="164"/>
-      <c r="G13" s="164"/>
-      <c r="H13" s="164"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="62" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="60">
-        <v>8</v>
-      </c>
-      <c r="C14" s="61">
-        <v>5</v>
-      </c>
-      <c r="D14" s="61">
-        <v>25</v>
-      </c>
-      <c r="E14" s="163" t="s">
-        <v>89</v>
-      </c>
-      <c r="F14" s="164"/>
-      <c r="G14" s="164"/>
-      <c r="H14" s="164"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" s="56"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="60">
-        <v>9</v>
-      </c>
-      <c r="C15" s="61">
-        <v>5</v>
-      </c>
-      <c r="D15" s="61">
-        <v>26</v>
-      </c>
-      <c r="E15" s="163" t="s">
-        <v>90</v>
-      </c>
-      <c r="F15" s="164"/>
-      <c r="G15" s="164"/>
-      <c r="H15" s="164"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="56"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="60">
-        <v>10</v>
-      </c>
-      <c r="C16" s="61">
-        <v>5</v>
-      </c>
-      <c r="D16" s="61">
-        <v>27</v>
-      </c>
-      <c r="E16" s="163" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="164"/>
-      <c r="G16" s="164"/>
-      <c r="H16" s="164"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
-      <c r="K16" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="56"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="60">
-        <v>11</v>
-      </c>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="56"/>
-    </row>
-    <row r="18" spans="1:12" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="60">
-        <v>12</v>
-      </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="56"/>
-    </row>
-    <row r="19" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="60">
-        <v>13</v>
-      </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="56"/>
-    </row>
-    <row r="20" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="60">
-        <v>14</v>
-      </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="56"/>
-    </row>
-    <row r="21" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="60">
-        <v>15</v>
-      </c>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="61"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="56"/>
-    </row>
-    <row r="22" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="60">
-        <v>16</v>
-      </c>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="56"/>
-    </row>
-    <row r="23" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="63">
-        <v>17</v>
-      </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="56"/>
-    </row>
-    <row r="24" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="63">
-        <v>18</v>
-      </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="56"/>
-    </row>
-    <row r="25" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="63">
-        <v>19</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="61"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="56"/>
-    </row>
-    <row r="26" spans="1:12" s="56" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="63">
-        <v>20</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-    </row>
-    <row r="27" spans="1:12" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="63">
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="46"/>
+    </row>
+    <row r="27" spans="1:12" s="29" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="47">
         <v>21</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="61"/>
-      <c r="K27" s="64"/>
-      <c r="L27" s="56"/>
-    </row>
-    <row r="28" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="63">
+      <c r="C27" s="31"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="41"/>
+    </row>
+    <row r="28" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="47">
         <v>22</v>
       </c>
-      <c r="C28" s="48"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="61"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="56"/>
-    </row>
-    <row r="29" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="63">
+      <c r="C28" s="35"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="45"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="41"/>
+    </row>
+    <row r="29" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="47">
         <v>23</v>
       </c>
-      <c r="C29" s="48"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="50"/>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="61"/>
-      <c r="K29" s="64"/>
-      <c r="L29" s="56"/>
-    </row>
-    <row r="30" spans="1:12" s="45" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="63">
+      <c r="C29" s="35"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="45"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="41"/>
+    </row>
+    <row r="30" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="47">
         <v>24</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="56"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="46"/>
+      <c r="K30" s="46"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="15"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
     </row>
     <row r="32" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="70"/>
-      <c r="B32" s="71" t="s">
+      <c r="A32" s="54"/>
+      <c r="B32" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="13"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="32"/>
+      <c r="J32" s="28"/>
       <c r="K32" s="4"/>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="69"/>
-      <c r="J33" s="12"/>
+      <c r="B33" s="53"/>
+      <c r="J33" s="10"/>
       <c r="K33" s="4"/>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="120"/>
-      <c r="D34" s="120"/>
-      <c r="E34" s="121"/>
-      <c r="F34" s="20" t="s">
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
+      <c r="E34" s="120"/>
+      <c r="F34" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="H34" s="134"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="121"/>
-      <c r="K34" s="126" t="s">
+      <c r="H34" s="118"/>
+      <c r="I34" s="119"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="127"/>
+      <c r="L34" s="109"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="56"/>
-      <c r="C35" s="122" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="122" t="s">
+      <c r="D35" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="123" t="s">
+      <c r="E35" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="132" t="s">
+      <c r="F35" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="G35" s="135" t="s">
+      <c r="G35" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="H35" s="136"/>
-      <c r="I35" s="122" t="s">
+      <c r="H35" s="122"/>
+      <c r="I35" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="J35" s="123" t="s">
+      <c r="J35" s="115" t="s">
         <v>34</v>
       </c>
-      <c r="K35" s="128" t="s">
+      <c r="K35" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="130" t="s">
+      <c r="L35" s="112" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="56"/>
-      <c r="C36" s="122"/>
-      <c r="D36" s="122"/>
-      <c r="E36" s="123"/>
-      <c r="F36" s="132"/>
-      <c r="G36" s="137"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="122"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="129"/>
-      <c r="L36" s="131"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="116"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="114"/>
+      <c r="G36" s="123"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="111"/>
+      <c r="L36" s="113"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="56"/>
-      <c r="C37" s="21">
-        <v>10</v>
-      </c>
-      <c r="D37" s="21">
+      <c r="B37" s="41"/>
+      <c r="C37" s="17">
+        <v>14</v>
+      </c>
+      <c r="D37" s="17">
         <v>0</v>
       </c>
-      <c r="E37" s="22">
+      <c r="E37" s="18">
         <v>0</v>
       </c>
-      <c r="F37" s="26">
+      <c r="F37" s="22">
         <v>0</v>
       </c>
-      <c r="G37" s="118"/>
-      <c r="H37" s="119"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="130"/>
       <c r="I37" s="2"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="25"/>
-      <c r="L37" s="24"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="20"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="56"/>
-      <c r="K38" s="23"/>
+      <c r="B38" s="41"/>
+      <c r="K38" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:H36"/>
+  <mergeCells count="40">
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E25:J25"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E18:J18"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="D5:D6"/>
@@ -5058,6 +5217,21 @@
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E17:J17"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:H36"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5066,6 +5240,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008B25FE9D8737D14D84D6FB5173ED92BB" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f4f7fbb02edb9a009f6357d28df05595">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c7d9205c-4649-46e5-995b-22b7db30bf84" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3d516961ff737a9251564970c4f1bb" ns2:_="">
     <xsd:import namespace="c7d9205c-4649-46e5-995b-22b7db30bf84"/>
@@ -5209,22 +5398,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D1C4B5-36F3-476F-91B7-D2CB4C4EA0C4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6030A2D-5F56-4317-B331-A9DBB3B3B39E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96FDED1B-7FA5-4F54-BF98-6BAAAF831B94}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5240,21 +5431,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6030A2D-5F56-4317-B331-A9DBB3B3B39E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21D1C4B5-36F3-476F-91B7-D2CB4C4EA0C4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>